--- a/dashboard-ui/src/components/Research/variables/Variable Definitions RQ8_PH2.xlsx
+++ b/dashboard-ui/src/components/Research/variables/Variable Definitions RQ8_PH2.xlsx
@@ -735,7 +735,7 @@
     <t>Levels</t>
   </si>
   <si>
-    <t>1-3, V (Not all from same set e.g MF1, AF3, SS2, PS1)</t>
+    <t>1-3, V (Various, not all from same set e.g MF1, AF3, SS2, PS1)</t>
   </si>
   <si>
     <t>0.0-1.0</t>
@@ -818,7 +818,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -833,19 +833,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1155,151 +1149,151 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="8" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="8" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="8" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="8" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="8" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="8" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="8" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="8" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="8" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="8" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="8" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="8" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="8" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="8" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="8" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="8" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="39" max="39" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="40" max="40" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="41" max="41" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="42" max="42" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="43" max="43" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="44" max="44" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="45" max="45" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="46" max="46" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="47" max="47" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="48" max="48" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="49" max="49" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="50" max="50" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="51" max="51" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="52" max="52" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="53" max="53" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="54" max="54" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="55" max="55" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="56" max="56" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="57" max="57" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="58" max="58" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="59" max="59" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="60" max="60" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="61" max="61" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="62" max="62" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="63" max="63" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="64" max="64" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="65" max="65" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="66" max="66" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="67" max="67" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="68" max="68" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="69" max="69" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="70" max="70" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="71" max="71" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="72" max="72" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="73" max="73" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="74" max="74" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="75" max="75" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="76" max="76" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="77" max="77" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="78" max="78" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="79" max="79" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="80" max="80" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="81" max="81" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="82" max="82" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="83" max="83" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="84" max="84" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="85" max="85" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="86" max="86" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="87" max="87" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="88" max="88" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="89" max="89" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="90" max="90" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="91" max="91" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="92" max="92" style="9" width="97.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="93" max="93" style="9" width="97.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="94" max="94" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="95" max="95" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="96" max="96" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="97" max="97" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="98" max="98" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="99" max="99" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="100" max="100" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="101" max="101" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="102" max="102" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="103" max="103" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="104" max="104" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="105" max="105" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="106" max="106" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="107" max="107" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="108" max="108" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="109" max="109" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="110" max="110" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="111" max="111" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="112" max="112" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="113" max="113" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="114" max="114" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="115" max="115" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="116" max="116" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="117" max="117" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="118" max="118" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="119" max="119" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="120" max="120" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="121" max="121" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="122" max="122" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="123" max="123" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="124" max="124" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="125" max="125" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="126" max="126" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="127" max="127" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="128" max="128" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="129" max="129" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="130" max="130" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="131" max="131" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="132" max="132" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="133" max="133" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="134" max="134" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="135" max="135" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="136" max="136" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="137" max="137" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="138" max="138" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="139" max="139" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="140" max="140" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="141" max="141" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="142" max="142" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="143" max="143" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="144" max="144" style="9" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="145" max="145" style="9" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="39" max="39" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="40" max="40" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="41" max="41" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="42" max="42" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="43" max="43" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="44" max="44" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="45" max="45" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="46" max="46" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="47" max="47" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="48" max="48" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="49" max="49" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="50" max="50" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="51" max="51" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="52" max="52" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="53" max="53" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="54" max="54" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="55" max="55" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="56" max="56" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="57" max="57" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="58" max="58" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="59" max="59" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="60" max="60" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="61" max="61" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="62" max="62" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="63" max="63" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="64" max="64" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="65" max="65" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="66" max="66" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="67" max="67" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="68" max="68" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="69" max="69" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="70" max="70" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="71" max="71" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="72" max="72" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="73" max="73" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="74" max="74" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="75" max="75" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="76" max="76" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="77" max="77" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="78" max="78" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="79" max="79" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="80" max="80" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="81" max="81" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="82" max="82" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="83" max="83" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="84" max="84" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="85" max="85" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="86" max="86" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="87" max="87" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="88" max="88" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="89" max="89" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="90" max="90" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="91" max="91" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="92" max="92" style="5" width="97.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="93" max="93" style="5" width="97.7192857142857" customWidth="1" bestFit="1"/>
+    <col min="94" max="94" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="95" max="95" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="96" max="96" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="97" max="97" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="98" max="98" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="99" max="99" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="100" max="100" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="101" max="101" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="102" max="102" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="103" max="103" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="104" max="104" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="105" max="105" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="106" max="106" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="107" max="107" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="108" max="108" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="109" max="109" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="110" max="110" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="111" max="111" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="112" max="112" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="113" max="113" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="114" max="114" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="115" max="115" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="116" max="116" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="117" max="117" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="118" max="118" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="119" max="119" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="120" max="120" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="121" max="121" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="122" max="122" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="123" max="123" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="124" max="124" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="125" max="125" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="126" max="126" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="127" max="127" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="128" max="128" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="129" max="129" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="130" max="130" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="131" max="131" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="132" max="132" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="133" max="133" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="134" max="134" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="135" max="135" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="136" max="136" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="137" max="137" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="138" max="138" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="139" max="139" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="140" max="140" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="141" max="141" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="142" max="142" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="143" max="143" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="144" max="144" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="145" max="145" style="5" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="46.5" customFormat="1" s="7">

--- a/dashboard-ui/src/components/Research/variables/Variable Definitions RQ8_PH2.xlsx
+++ b/dashboard-ui/src/components/Research/variables/Variable Definitions RQ8_PH2.xlsx
@@ -237,6 +237,24 @@
     <t>Urban AF KDMA</t>
   </si>
   <si>
+    <t>Desert Personal_safety</t>
+  </si>
+  <si>
+    <t>Desert Search1</t>
+  </si>
+  <si>
+    <t>Desert Search2</t>
+  </si>
+  <si>
+    <t>Urban Personal_safety</t>
+  </si>
+  <si>
+    <t>Urban Search1</t>
+  </si>
+  <si>
+    <t>Urban Search2</t>
+  </si>
+  <si>
     <t>Desert Triage Performance</t>
   </si>
   <si>
@@ -477,15 +495,6 @@
     <t>Desert Patient9_tag</t>
   </si>
   <si>
-    <t>Desert Personal_safety</t>
-  </si>
-  <si>
-    <t>Desert Search1</t>
-  </si>
-  <si>
-    <t>Desert Search2</t>
-  </si>
-  <si>
     <t>Urban Patient1_time</t>
   </si>
   <si>
@@ -630,15 +639,6 @@
     <t>Urban Patient8_tag</t>
   </si>
   <si>
-    <t>Urban Personal_safety</t>
-  </si>
-  <si>
-    <t>Urban Search1</t>
-  </si>
-  <si>
-    <t>Urban Search2</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -672,6 +672,12 @@
     <t>KDMA measurement from simulation probes  in Urban Scenario</t>
   </si>
   <si>
+    <t>Personal Safety probe based on whether or not the participant left the initial zone prior to the all clear radio inject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search vs. Stay probe based on whether the participant searched for new patients or stayed with current patients </t>
+  </si>
+  <si>
     <t>% correct treatments applied</t>
   </si>
   <si>
@@ -726,21 +732,21 @@
     <t>-</t>
   </si>
   <si>
-    <t>Personal Safety probe based on whether or not the participant left the initial zone prior to the all clear radio inject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search vs. Stay probe based on whether the participant searched for new patients or stayed with current patients </t>
-  </si>
-  <si>
     <t>Levels</t>
   </si>
   <si>
-    <t>1-3, V (Various, not all from same set e.g MF1, AF3, SS2, PS1)</t>
+    <t>1-3, Various (not all from same set e.g MF1, AF3, SS2, PS1)</t>
   </si>
   <si>
     <t>0.0-1.0</t>
   </si>
   <si>
+    <t>1 = left the initial zone prio to the all clear, 0 = stayed until safe</t>
+  </si>
+  <si>
+    <t>1 = chose to search for new patient, 0 = chose to stay with current patients</t>
+  </si>
+  <si>
     <t>%</t>
   </si>
   <si>
@@ -763,12 +769,6 @@
   </si>
   <si>
     <t>color</t>
-  </si>
-  <si>
-    <t>1 = left the initial zone prio to the all clear, 0 = stayed until safe</t>
-  </si>
-  <si>
-    <t>1 = chose to search for new patient, 0 = chose to stay with current patients</t>
   </si>
 </sst>
 </file>
@@ -818,7 +818,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -840,6 +840,15 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1160,33 +1169,33 @@
     <col min="9" max="9" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="18" max="18" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="19" max="19" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="21" max="21" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="22" max="22" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="23" max="23" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="29" max="29" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="33" max="33" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="34" max="34" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="39" max="39" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="40" max="40" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="41" max="41" style="6" width="13.005" customWidth="1" bestFit="1"/>
@@ -1240,9 +1249,9 @@
     <col min="89" max="89" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="90" max="90" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="91" max="91" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="92" max="92" style="5" width="97.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="93" max="93" style="5" width="97.7192857142857" customWidth="1" bestFit="1"/>
-    <col min="94" max="94" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="92" max="92" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="93" max="93" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="94" max="94" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="95" max="95" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="96" max="96" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="97" max="97" style="6" width="13.005" customWidth="1" bestFit="1"/>
@@ -1291,9 +1300,9 @@
     <col min="140" max="140" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="141" max="141" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="142" max="142" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="143" max="143" style="5" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="144" max="144" style="5" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="145" max="145" style="5" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="143" max="143" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="144" max="144" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="145" max="145" style="6" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="46.5" customFormat="1" s="7">
@@ -1330,22 +1339,22 @@
       <c r="K1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="8" t="s">
         <v>34</v>
       </c>
       <c r="R1" s="3" t="s">
@@ -1767,22 +1776,22 @@
       <c r="K2" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="8" t="s">
         <v>167</v>
       </c>
       <c r="R2" s="3" t="s">
@@ -2204,22 +2213,22 @@
       <c r="K3" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="P3" s="3" t="s">
+      <c r="N3" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="O3" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="P3" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q3" s="9" t="s">
         <v>175</v>
       </c>
       <c r="R3" s="3" t="s">
@@ -2235,341 +2244,341 @@
         <v>179</v>
       </c>
       <c r="V3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z3" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="AC3" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI3" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AL3" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AN3" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AO3" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AP3" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="AM3" s="3" t="s">
+      <c r="AQ3" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3" t="s">
+      <c r="AR3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="AP3" s="3" t="s">
+      <c r="AS3" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="AQ3" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="AR3" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="AS3" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="AT3" s="3"/>
       <c r="AU3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AX3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="AV3" s="3" t="s">
+      <c r="AY3" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="AW3" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="AX3" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="AY3" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="AZ3" s="3"/>
       <c r="BA3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="BD3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="BB3" s="3" t="s">
+      <c r="BE3" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="BC3" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="BD3" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="BE3" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="BF3" s="3"/>
       <c r="BG3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BI3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="BH3" s="3" t="s">
+      <c r="BK3" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="BI3" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="BJ3" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="BK3" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="BL3" s="3"/>
       <c r="BM3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="BN3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BO3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="BP3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="BN3" s="3" t="s">
+      <c r="BQ3" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="BO3" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="BP3" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="BQ3" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="BR3" s="3"/>
       <c r="BS3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="BT3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BU3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="BV3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="BT3" s="3" t="s">
+      <c r="BW3" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="BU3" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="BV3" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="BW3" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="BX3" s="3"/>
       <c r="BY3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="BZ3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="CA3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="CB3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="BZ3" s="3" t="s">
+      <c r="CC3" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="CA3" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="CB3" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="CC3" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="CD3" s="3"/>
       <c r="CE3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="CF3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="CG3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="CH3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="CF3" s="3" t="s">
+      <c r="CI3" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="CG3" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="CH3" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="CI3" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="CJ3" s="3"/>
       <c r="CK3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="CL3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="CM3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="CN3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="CL3" s="3" t="s">
+      <c r="CO3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="CM3" s="3" t="s">
+      <c r="CP3" s="3"/>
+      <c r="CQ3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="CN3" s="2" t="s">
+      <c r="CR3" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="CO3" s="2" t="s">
+      <c r="CS3" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="CP3" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="CQ3" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="CR3" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="CS3" s="3"/>
       <c r="CT3" s="3" t="s">
         <v>189</v>
       </c>
       <c r="CU3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="CV3" s="3" t="s">
+      <c r="CV3" s="3"/>
+      <c r="CW3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="CW3" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="CX3" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="CY3" s="3"/>
+        <v>192</v>
+      </c>
+      <c r="CY3" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="CZ3" s="3" t="s">
         <v>189</v>
       </c>
       <c r="DA3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="DB3" s="3" t="s">
+      <c r="DB3" s="3"/>
+      <c r="DC3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="DC3" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="DD3" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="DE3" s="3"/>
+        <v>192</v>
+      </c>
+      <c r="DE3" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="DF3" s="3" t="s">
         <v>189</v>
       </c>
       <c r="DG3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="DH3" s="3" t="s">
+      <c r="DH3" s="3"/>
+      <c r="DI3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="DI3" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="DJ3" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="DK3" s="3"/>
+        <v>192</v>
+      </c>
+      <c r="DK3" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="DL3" s="3" t="s">
         <v>189</v>
       </c>
       <c r="DM3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="DN3" s="3" t="s">
+      <c r="DN3" s="3"/>
+      <c r="DO3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="DO3" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="DP3" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="DQ3" s="3"/>
+        <v>192</v>
+      </c>
+      <c r="DQ3" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="DR3" s="3" t="s">
         <v>189</v>
       </c>
       <c r="DS3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="DT3" s="3" t="s">
+      <c r="DT3" s="3"/>
+      <c r="DU3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="DU3" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="DV3" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="DW3" s="3"/>
+        <v>192</v>
+      </c>
+      <c r="DW3" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="DX3" s="3" t="s">
         <v>189</v>
       </c>
       <c r="DY3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="DZ3" s="3" t="s">
+      <c r="DZ3" s="3"/>
+      <c r="EA3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="EA3" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="EB3" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="EC3" s="3"/>
+        <v>192</v>
+      </c>
+      <c r="EC3" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="ED3" s="3" t="s">
         <v>189</v>
       </c>
       <c r="EE3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="EF3" s="3" t="s">
+      <c r="EF3" s="3"/>
+      <c r="EG3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="EG3" s="3" t="s">
-        <v>187</v>
-      </c>
       <c r="EH3" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="EI3" s="3"/>
+        <v>192</v>
+      </c>
+      <c r="EI3" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="EJ3" s="3" t="s">
         <v>189</v>
       </c>
       <c r="EK3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="EL3" s="3" t="s">
+      <c r="EL3" s="3"/>
+      <c r="EM3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="EM3" s="2" t="s">
+      <c r="EN3" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="EN3" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="EO3" s="2" t="s">
+      <c r="EO3" s="3" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2605,26 +2614,26 @@
       <c r="K4" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="O4" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="P4" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="Q4" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>199</v>
@@ -2633,378 +2642,378 @@
         <v>200</v>
       </c>
       <c r="U4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="X4" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="Y4" s="3" t="s">
         <v>201</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>202</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AK4" s="3" t="s">
         <v>202</v>
       </c>
       <c r="AL4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM4" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="AM4" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="AN4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AO4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="AO4" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="AP4" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AQ4" s="3" t="s">
         <v>204</v>
       </c>
       <c r="AR4" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AS4" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AT4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="AU4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="AU4" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="AV4" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AW4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AX4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AY4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ4" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="AX4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AY4" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AZ4" s="3" t="s">
+      <c r="BA4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="BA4" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="BB4" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BC4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="BD4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="BF4" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="BD4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="BE4" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="BF4" s="3" t="s">
+      <c r="BG4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="BG4" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="BH4" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BI4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="BJ4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BK4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="BL4" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="BJ4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="BK4" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="BL4" s="3" t="s">
+      <c r="BM4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="BM4" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="BN4" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BO4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="BP4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BQ4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="BR4" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="BP4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="BQ4" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="BR4" s="3" t="s">
+      <c r="BS4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="BS4" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="BT4" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="BU4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="BV4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BW4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="BX4" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="BV4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="BW4" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="BX4" s="3" t="s">
+      <c r="BY4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="BY4" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="BZ4" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="CA4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="CB4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="CC4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="CD4" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="CB4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="CC4" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="CD4" s="3" t="s">
+      <c r="CE4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="CE4" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="CF4" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="CG4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="CH4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="CI4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="CJ4" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="CH4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="CI4" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="CJ4" s="3" t="s">
+      <c r="CK4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="CK4" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="CL4" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="CM4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="CN4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="CO4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="CP4" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="CN4" s="2" t="s">
+      <c r="CQ4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="CR4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="CS4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="CT4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="CO4" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="CP4" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="CQ4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="CR4" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="CS4" s="3" t="s">
+      <c r="CU4" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="CT4" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="CU4" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="CV4" s="3" t="s">
         <v>204</v>
       </c>
       <c r="CW4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CX4" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="CY4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="CZ4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="DA4" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="CZ4" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="DA4" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="DB4" s="3" t="s">
         <v>204</v>
       </c>
       <c r="DC4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="DD4" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="DE4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="DF4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="DG4" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="DF4" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="DG4" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="DH4" s="3" t="s">
         <v>204</v>
       </c>
       <c r="DI4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="DJ4" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="DK4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="DL4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="DM4" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="DL4" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="DM4" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="DN4" s="3" t="s">
         <v>204</v>
       </c>
       <c r="DO4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="DP4" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="DQ4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="DR4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="DS4" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="DR4" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="DS4" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="DT4" s="3" t="s">
         <v>204</v>
       </c>
       <c r="DU4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="DV4" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="DW4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="DX4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="DY4" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="DX4" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="DY4" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="DZ4" s="3" t="s">
         <v>204</v>
       </c>
       <c r="EA4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="EB4" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="EC4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="ED4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="EE4" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="ED4" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="EE4" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="EF4" s="3" t="s">
         <v>204</v>
       </c>
       <c r="EG4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="EH4" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="EI4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="EJ4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="EK4" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="EJ4" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="EK4" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="EL4" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="EM4" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="EN4" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="EO4" s="2" t="s">
+      <c r="EM4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="EN4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="EO4" s="3" t="s">
         <v>206</v>
       </c>
     </row>

--- a/dashboard-ui/src/components/Research/variables/Variable Definitions RQ8_PH2.xlsx
+++ b/dashboard-ui/src/components/Research/variables/Variable Definitions RQ8_PH2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="208">
   <si>
     <t>Probe</t>
   </si>
@@ -723,13 +723,16 @@
     <t>Order engaged by participant</t>
   </si>
   <si>
+    <t>Whether or not this patient was one of three selected for evac</t>
+  </si>
+  <si>
     <t># of assessment actions on patient</t>
   </si>
   <si>
     <t># of treatment actions on patient</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Color of tag applied to the patient</t>
   </si>
   <si>
     <t>Levels</t>
@@ -741,10 +744,10 @@
     <t>0.0-1.0</t>
   </si>
   <si>
-    <t>1 = left the initial zone prio to the all clear, 0 = stayed until safe</t>
-  </si>
-  <si>
-    <t>1 = chose to search for new patient, 0 = chose to stay with current patients</t>
+    <t>1 = left the initial zone prior to the all clear, 0 = stayed until safe</t>
+  </si>
+  <si>
+    <t>1 = chose to search for new patients, 0 = chose to stay with current patients</t>
   </si>
   <si>
     <t>%</t>
@@ -768,7 +771,7 @@
     <t>Time (ms)</t>
   </si>
   <si>
-    <t>color</t>
+    <t>color of tag or N/A if none applied</t>
   </si>
 </sst>
 </file>
@@ -818,7 +821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -843,12 +846,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1169,12 +1166,12 @@
     <col min="9" max="9" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="18" max="18" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="19" max="19" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
@@ -1339,22 +1336,22 @@
       <c r="K1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="3" t="s">
         <v>34</v>
       </c>
       <c r="R1" s="3" t="s">
@@ -1776,22 +1773,22 @@
       <c r="K2" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="3" t="s">
         <v>167</v>
       </c>
       <c r="R2" s="3" t="s">
@@ -2179,7 +2176,7 @@
         <v>167</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="87">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="154.5" customFormat="1" s="7">
       <c r="A3" s="3" t="s">
         <v>168</v>
       </c>
@@ -2213,22 +2210,22 @@
       <c r="K3" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="3" t="s">
         <v>175</v>
       </c>
       <c r="R3" s="3" t="s">
@@ -2315,15 +2312,17 @@
       <c r="AS3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AT3" s="3"/>
+      <c r="AT3" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="AU3" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AV3" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AW3" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AX3" s="3" t="s">
         <v>189</v>
@@ -2331,15 +2330,17 @@
       <c r="AY3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AZ3" s="3"/>
+      <c r="AZ3" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="BA3" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="BB3" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="BC3" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="BD3" s="3" t="s">
         <v>189</v>
@@ -2347,15 +2348,17 @@
       <c r="BE3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="BF3" s="3"/>
+      <c r="BF3" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="BG3" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="BH3" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="BI3" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="BJ3" s="3" t="s">
         <v>189</v>
@@ -2363,15 +2366,17 @@
       <c r="BK3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="BL3" s="3"/>
+      <c r="BL3" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="BM3" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="BN3" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="BO3" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="BP3" s="3" t="s">
         <v>189</v>
@@ -2379,15 +2384,17 @@
       <c r="BQ3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="BR3" s="3"/>
+      <c r="BR3" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="BS3" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="BT3" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="BU3" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="BV3" s="3" t="s">
         <v>189</v>
@@ -2395,15 +2402,17 @@
       <c r="BW3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="BX3" s="3"/>
+      <c r="BX3" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="BY3" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="BZ3" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CA3" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="CB3" s="3" t="s">
         <v>189</v>
@@ -2411,15 +2420,17 @@
       <c r="CC3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="CD3" s="3"/>
+      <c r="CD3" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="CE3" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="CF3" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CG3" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="CH3" s="3" t="s">
         <v>189</v>
@@ -2427,15 +2438,17 @@
       <c r="CI3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="CJ3" s="3"/>
+      <c r="CJ3" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="CK3" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="CL3" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CM3" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="CN3" s="3" t="s">
         <v>189</v>
@@ -2443,15 +2456,17 @@
       <c r="CO3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="CP3" s="3"/>
+      <c r="CP3" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="CQ3" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="CR3" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CS3" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="CT3" s="3" t="s">
         <v>189</v>
@@ -2459,15 +2474,17 @@
       <c r="CU3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="CV3" s="3"/>
+      <c r="CV3" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="CW3" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="CX3" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CY3" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="CZ3" s="3" t="s">
         <v>189</v>
@@ -2475,15 +2492,17 @@
       <c r="DA3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="DB3" s="3"/>
+      <c r="DB3" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="DC3" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="DD3" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="DE3" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="DF3" s="3" t="s">
         <v>189</v>
@@ -2491,15 +2510,17 @@
       <c r="DG3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="DH3" s="3"/>
+      <c r="DH3" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="DI3" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="DJ3" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="DK3" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="DL3" s="3" t="s">
         <v>189</v>
@@ -2507,15 +2528,17 @@
       <c r="DM3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="DN3" s="3"/>
+      <c r="DN3" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="DO3" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="DP3" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="DQ3" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="DR3" s="3" t="s">
         <v>189</v>
@@ -2523,15 +2546,17 @@
       <c r="DS3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="DT3" s="3"/>
+      <c r="DT3" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="DU3" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="DV3" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="DW3" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="DX3" s="3" t="s">
         <v>189</v>
@@ -2539,15 +2564,17 @@
       <c r="DY3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="DZ3" s="3"/>
+      <c r="DZ3" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="EA3" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EB3" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EC3" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="ED3" s="3" t="s">
         <v>189</v>
@@ -2555,15 +2582,17 @@
       <c r="EE3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="EF3" s="3"/>
+      <c r="EF3" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="EG3" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EH3" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EI3" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="EJ3" s="3" t="s">
         <v>189</v>
@@ -2571,450 +2600,452 @@
       <c r="EK3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="EL3" s="3"/>
+      <c r="EL3" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="EM3" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="EN3" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="EO3" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="60">
+        <v>194</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="100.5" customFormat="1" s="7">
       <c r="A4" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="L4" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="L4" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="M4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="P4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG4" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="P4" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI4" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="AF4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AK4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AM4" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="AI4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AK4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AL4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AN4" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO4" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="AP4" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AS4" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="AO4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AP4" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AQ4" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="AR4" s="3" t="s">
+      <c r="AT4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="AS4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AT4" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="AU4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AV4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AW4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="AX4" s="3" t="s">
+      <c r="AY4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AZ4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="AY4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AZ4" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="BA4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="BB4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="BC4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="BD4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="BD4" s="3" t="s">
+      <c r="BE4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="BF4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="BE4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="BF4" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="BG4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="BH4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="BI4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="BJ4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="BJ4" s="3" t="s">
+      <c r="BK4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="BL4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="BK4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="BL4" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="BM4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="BN4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="BO4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="BP4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="BP4" s="3" t="s">
+      <c r="BQ4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="BR4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="BQ4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="BR4" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="BS4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="BT4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="BU4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="BV4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="BV4" s="3" t="s">
+      <c r="BW4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="BX4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="BW4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="BX4" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="BY4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="BZ4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="CA4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="CB4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="CB4" s="3" t="s">
+      <c r="CC4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="CD4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="CC4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="CD4" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="CE4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="CF4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="CG4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="CH4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="CH4" s="3" t="s">
+      <c r="CI4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="CJ4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="CI4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="CJ4" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="CK4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="CL4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="CM4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="CN4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="CN4" s="3" t="s">
+      <c r="CO4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="CP4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="CO4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="CP4" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="CQ4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="CR4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="CS4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="CT4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="CT4" s="3" t="s">
+      <c r="CU4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="CV4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="CU4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="CV4" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="CW4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="CX4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="CY4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="CZ4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="CZ4" s="3" t="s">
+      <c r="DA4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="DB4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="DA4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="DB4" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="DC4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="DD4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="DE4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="DF4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="DF4" s="3" t="s">
+      <c r="DG4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="DH4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="DG4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="DH4" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="DI4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="DJ4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="DK4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="DL4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="DL4" s="3" t="s">
+      <c r="DM4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="DN4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="DM4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="DN4" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="DO4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="DP4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="DQ4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="DR4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="DR4" s="3" t="s">
+      <c r="DS4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="DT4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="DS4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="DT4" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="DU4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="DV4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="DW4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="DX4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="DX4" s="3" t="s">
+      <c r="DY4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="DZ4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="DY4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="DZ4" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="EA4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="EB4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="EC4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="ED4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="ED4" s="3" t="s">
+      <c r="EE4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="EF4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="EE4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="EF4" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="EG4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="EH4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="EI4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="EJ4" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="EJ4" s="3" t="s">
+      <c r="EK4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="EL4" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="EK4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="EL4" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="EM4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="EN4" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="EO4" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard-ui/src/components/Research/variables/Variable Definitions RQ8_PH2.xlsx
+++ b/dashboard-ui/src/components/Research/variables/Variable Definitions RQ8_PH2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="205">
   <si>
     <t>Probe</t>
   </si>
@@ -258,9 +258,6 @@
     <t>Desert Triage Performance</t>
   </si>
   <si>
-    <t>Desert Tagging performance</t>
-  </si>
-  <si>
     <t>Desert Hemorrhage control</t>
   </si>
   <si>
@@ -270,9 +267,6 @@
     <t>Urban Triage Performance</t>
   </si>
   <si>
-    <t>Urban Tagging performance</t>
-  </si>
-  <si>
     <t>Urban Hemorrhage control</t>
   </si>
   <si>
@@ -679,9 +673,6 @@
   </si>
   <si>
     <t>% correct treatments applied</t>
-  </si>
-  <si>
-    <t>% correct tags applied</t>
   </si>
   <si>
     <t>Yes (1) if all hemorrhage control actions takens; otherwise no</t>
@@ -821,7 +812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -843,9 +834,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1149,7 +1137,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:EO4"/>
+  <dimension ref="A1:EM4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -1166,12 +1154,12 @@
     <col min="9" max="9" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="18" max="18" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="19" max="19" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
@@ -1182,17 +1170,17 @@
     <col min="25" max="25" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="26" max="26" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="27" max="27" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="30" max="30" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="31" max="31" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="32" max="32" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="35" max="35" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="36" max="36" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="39" max="39" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="40" max="40" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="41" max="41" style="6" width="13.005" customWidth="1" bestFit="1"/>
@@ -1298,8 +1286,6 @@
     <col min="141" max="141" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="142" max="142" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="143" max="143" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="144" max="144" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="145" max="145" style="6" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="46.5" customFormat="1" s="7">
@@ -1732,1320 +1718,1296 @@
       <c r="EM1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="EN1" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="EO1" s="3" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="33" customFormat="1" s="7">
       <c r="A2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="M2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AX2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AZ2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BA2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BB2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BC2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BD2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BE2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BF2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BG2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BH2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BI2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BJ2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BK2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BL2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BM2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BN2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BO2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BP2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BQ2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BR2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BS2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BT2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BU2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BV2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BW2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BX2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BY2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BZ2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CA2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CB2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CC2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CD2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CE2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CF2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CG2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CH2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CI2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CJ2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CK2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CL2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CM2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CN2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CO2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CP2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CQ2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CR2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CS2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CT2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CU2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CV2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CW2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CX2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CY2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CZ2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DA2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DB2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DC2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DD2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DE2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DF2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DG2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DH2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DI2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DJ2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DK2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DL2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DM2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DN2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DO2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DP2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DQ2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DR2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DS2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DT2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DU2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DV2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DW2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DX2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DY2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DZ2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="EA2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="EB2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="EC2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="ED2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="EE2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="EF2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="EG2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="EH2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="EI2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="EJ2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="EK2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="EL2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="EM2" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="EN2" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="EO2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="154.5" customFormat="1" s="7">
       <c r="A3" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="J3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="N3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="T3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="R3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="V3" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="W3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG3" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AL3" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AN3" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AO3" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AP3" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AQ3" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AR3" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="AI3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AO3" s="3" t="s">
+      <c r="AS3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AV3" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="AP3" s="3" t="s">
+      <c r="AW3" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="AQ3" s="3" t="s">
+      <c r="AX3" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="AR3" s="3" t="s">
+      <c r="AY3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="AS3" s="3" t="s">
+      <c r="AZ3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AT3" s="3" t="s">
+      <c r="BA3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="AU3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="AV3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AW3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="AX3" s="3" t="s">
+      <c r="BB3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="BE3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="AY3" s="3" t="s">
+      <c r="BF3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AZ3" s="3" t="s">
+      <c r="BG3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="BA3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="BB3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BC3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="BD3" s="3" t="s">
+      <c r="BH3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="BI3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="BK3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="BE3" s="3" t="s">
+      <c r="BL3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="BF3" s="3" t="s">
+      <c r="BM3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="BG3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="BH3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BI3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="BJ3" s="3" t="s">
+      <c r="BN3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="BO3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="BP3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="BQ3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="BK3" s="3" t="s">
+      <c r="BR3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="BL3" s="3" t="s">
+      <c r="BS3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="BM3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="BN3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BO3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="BP3" s="3" t="s">
+      <c r="BT3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="BU3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="BV3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="BW3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="BQ3" s="3" t="s">
+      <c r="BX3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="BR3" s="3" t="s">
+      <c r="BY3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="BS3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="BT3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BU3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="BV3" s="3" t="s">
+      <c r="BZ3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="CA3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="CB3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="CC3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="BW3" s="3" t="s">
+      <c r="CD3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="BX3" s="3" t="s">
+      <c r="CE3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="BY3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="BZ3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="CA3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="CB3" s="3" t="s">
+      <c r="CF3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="CG3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="CH3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="CI3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="CC3" s="3" t="s">
+      <c r="CJ3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="CD3" s="3" t="s">
+      <c r="CK3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="CE3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="CF3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="CG3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="CH3" s="3" t="s">
+      <c r="CL3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="CM3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="CN3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="CO3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="CI3" s="3" t="s">
+      <c r="CP3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="CJ3" s="3" t="s">
+      <c r="CQ3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="CK3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="CL3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="CM3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="CN3" s="3" t="s">
+      <c r="CR3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="CS3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="CT3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="CU3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="CO3" s="3" t="s">
+      <c r="CV3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="CP3" s="3" t="s">
+      <c r="CW3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="CQ3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="CR3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="CS3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="CT3" s="3" t="s">
+      <c r="CX3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="CY3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="CZ3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="DA3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="CU3" s="3" t="s">
+      <c r="DB3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="CV3" s="3" t="s">
+      <c r="DC3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="CW3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="CX3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="CY3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="CZ3" s="3" t="s">
+      <c r="DD3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="DE3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="DF3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="DG3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="DA3" s="3" t="s">
+      <c r="DH3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="DB3" s="3" t="s">
+      <c r="DI3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="DC3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="DD3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="DE3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="DF3" s="3" t="s">
+      <c r="DJ3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="DK3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="DL3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="DM3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="DG3" s="3" t="s">
+      <c r="DN3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="DH3" s="3" t="s">
+      <c r="DO3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="DI3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="DJ3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="DK3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="DL3" s="3" t="s">
+      <c r="DP3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="DQ3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="DR3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="DS3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="DM3" s="3" t="s">
+      <c r="DT3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="DN3" s="3" t="s">
+      <c r="DU3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="DO3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="DP3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="DQ3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="DR3" s="3" t="s">
+      <c r="DV3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="DW3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="DX3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="DY3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="DS3" s="3" t="s">
+      <c r="DZ3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="DT3" s="3" t="s">
+      <c r="EA3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="DU3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="DV3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="DW3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="DX3" s="3" t="s">
+      <c r="EB3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="EC3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="ED3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="EE3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="DY3" s="3" t="s">
+      <c r="EF3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="DZ3" s="3" t="s">
+      <c r="EG3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="EA3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="EB3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="EC3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="ED3" s="3" t="s">
+      <c r="EH3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="EI3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="EJ3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="EK3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="EE3" s="3" t="s">
+      <c r="EL3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="EF3" s="3" t="s">
+      <c r="EM3" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="EG3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="EH3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="EI3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="EJ3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="EK3" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="EL3" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="EM3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="EN3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="EO3" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="100.5" customFormat="1" s="7">
       <c r="A4" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="N4" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="S4" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="R4" s="3" t="s">
+      <c r="X4" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="Y4" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AK4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AL4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO4" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AP4" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="AA4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AQ4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AU4" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AI4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AJ4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AK4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AL4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AM4" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="AN4" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="AO4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AP4" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="AQ4" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AR4" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="AS4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AT4" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AU4" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="AV4" s="3" t="s">
         <v>203</v>
       </c>
       <c r="AW4" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AX4" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="AY4" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AZ4" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="BA4" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="BB4" s="3" t="s">
         <v>203</v>
       </c>
       <c r="BC4" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BD4" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="BE4" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="BF4" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="BG4" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="BH4" s="3" t="s">
         <v>203</v>
       </c>
       <c r="BI4" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BJ4" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="BK4" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="BL4" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="BM4" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="BN4" s="3" t="s">
         <v>203</v>
       </c>
       <c r="BO4" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BP4" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="BQ4" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="BR4" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="BS4" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="BT4" s="3" t="s">
         <v>203</v>
       </c>
       <c r="BU4" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BV4" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="BW4" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="BX4" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="BY4" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="BZ4" s="3" t="s">
         <v>203</v>
       </c>
       <c r="CA4" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="CB4" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="CC4" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="CD4" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="CE4" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="CF4" s="3" t="s">
         <v>203</v>
       </c>
       <c r="CG4" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="CH4" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="CI4" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="CJ4" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="CK4" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="CL4" s="3" t="s">
         <v>203</v>
       </c>
       <c r="CM4" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="CN4" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="CO4" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="CP4" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="CQ4" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="CR4" s="3" t="s">
         <v>203</v>
       </c>
       <c r="CS4" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="CT4" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="CU4" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="CV4" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="CW4" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="CX4" s="3" t="s">
         <v>203</v>
       </c>
       <c r="CY4" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="CZ4" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="DA4" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="DB4" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="DC4" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="DD4" s="3" t="s">
         <v>203</v>
       </c>
       <c r="DE4" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="DF4" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="DG4" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="DH4" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="DI4" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="DJ4" s="3" t="s">
         <v>203</v>
       </c>
       <c r="DK4" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="DL4" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="DM4" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="DN4" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="DO4" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="DP4" s="3" t="s">
         <v>203</v>
       </c>
       <c r="DQ4" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="DR4" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="DS4" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="DT4" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="DU4" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="DV4" s="3" t="s">
         <v>203</v>
       </c>
       <c r="DW4" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="DX4" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="DY4" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="DZ4" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="EA4" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="EB4" s="3" t="s">
         <v>203</v>
       </c>
       <c r="EC4" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="ED4" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="EE4" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="EF4" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="EG4" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="EH4" s="3" t="s">
         <v>203</v>
       </c>
       <c r="EI4" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="EJ4" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="EK4" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="EL4" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="EM4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="EN4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="EO4" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard-ui/src/components/Research/variables/Variable Definitions RQ8_PH2.xlsx
+++ b/dashboard-ui/src/components/Research/variables/Variable Definitions RQ8_PH2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="204">
   <si>
     <t>Probe</t>
   </si>
@@ -672,7 +672,7 @@
     <t xml:space="preserve">Search vs. Stay probe based on whether the participant searched for new patients or stayed with current patients </t>
   </si>
   <si>
-    <t>% correct treatments applied</t>
+    <t>% correct treatments applied calculated as (correct tools applied) / (misses + total tools applied).</t>
   </si>
   <si>
     <t>Yes (1) if all hemorrhage control actions takens; otherwise no</t>
@@ -747,19 +747,16 @@
     <t>1 or 0</t>
   </si>
   <si>
-    <t>time (m)</t>
+    <t>time (s)</t>
   </si>
   <si>
     <t>number</t>
   </si>
   <si>
-    <t>time (ms)</t>
-  </si>
-  <si>
     <t>Yes/no</t>
   </si>
   <si>
-    <t>Time (ms)</t>
+    <t>Time (s)</t>
   </si>
   <si>
     <t>color of tag or N/A if none applied</t>
@@ -2662,10 +2659,10 @@
         <v>200</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AD4" s="3" t="s">
         <v>200</v>
@@ -2674,7 +2671,7 @@
         <v>194</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AG4" s="3" t="s">
         <v>200</v>
@@ -2689,10 +2686,10 @@
         <v>200</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AM4" s="3" t="s">
         <v>200</v>
@@ -2701,16 +2698,16 @@
         <v>194</v>
       </c>
       <c r="AO4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AP4" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="AP4" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="AQ4" s="3" t="s">
         <v>200</v>
       </c>
       <c r="AR4" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AS4" s="3" t="s">
         <v>200</v>
@@ -2719,16 +2716,16 @@
         <v>200</v>
       </c>
       <c r="AU4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AV4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AW4" s="3" t="s">
         <v>200</v>
       </c>
       <c r="AX4" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AY4" s="3" t="s">
         <v>200</v>
@@ -2737,16 +2734,16 @@
         <v>200</v>
       </c>
       <c r="BA4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BB4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BC4" s="3" t="s">
         <v>200</v>
       </c>
       <c r="BD4" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BE4" s="3" t="s">
         <v>200</v>
@@ -2755,16 +2752,16 @@
         <v>200</v>
       </c>
       <c r="BG4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BH4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BI4" s="3" t="s">
         <v>200</v>
       </c>
       <c r="BJ4" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BK4" s="3" t="s">
         <v>200</v>
@@ -2773,16 +2770,16 @@
         <v>200</v>
       </c>
       <c r="BM4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BN4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BO4" s="3" t="s">
         <v>200</v>
       </c>
       <c r="BP4" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BQ4" s="3" t="s">
         <v>200</v>
@@ -2791,16 +2788,16 @@
         <v>200</v>
       </c>
       <c r="BS4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BT4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BU4" s="3" t="s">
         <v>200</v>
       </c>
       <c r="BV4" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BW4" s="3" t="s">
         <v>200</v>
@@ -2809,16 +2806,16 @@
         <v>200</v>
       </c>
       <c r="BY4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BZ4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CA4" s="3" t="s">
         <v>200</v>
       </c>
       <c r="CB4" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="CC4" s="3" t="s">
         <v>200</v>
@@ -2827,16 +2824,16 @@
         <v>200</v>
       </c>
       <c r="CE4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CF4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CG4" s="3" t="s">
         <v>200</v>
       </c>
       <c r="CH4" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="CI4" s="3" t="s">
         <v>200</v>
@@ -2845,16 +2842,16 @@
         <v>200</v>
       </c>
       <c r="CK4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CL4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CM4" s="3" t="s">
         <v>200</v>
       </c>
       <c r="CN4" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="CO4" s="3" t="s">
         <v>200</v>
@@ -2863,16 +2860,16 @@
         <v>200</v>
       </c>
       <c r="CQ4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CR4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CS4" s="3" t="s">
         <v>200</v>
       </c>
       <c r="CT4" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="CU4" s="3" t="s">
         <v>200</v>
@@ -2881,16 +2878,16 @@
         <v>200</v>
       </c>
       <c r="CW4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CX4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CY4" s="3" t="s">
         <v>200</v>
       </c>
       <c r="CZ4" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="DA4" s="3" t="s">
         <v>200</v>
@@ -2899,16 +2896,16 @@
         <v>200</v>
       </c>
       <c r="DC4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DD4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="DE4" s="3" t="s">
         <v>200</v>
       </c>
       <c r="DF4" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="DG4" s="3" t="s">
         <v>200</v>
@@ -2917,16 +2914,16 @@
         <v>200</v>
       </c>
       <c r="DI4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DJ4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="DK4" s="3" t="s">
         <v>200</v>
       </c>
       <c r="DL4" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="DM4" s="3" t="s">
         <v>200</v>
@@ -2935,16 +2932,16 @@
         <v>200</v>
       </c>
       <c r="DO4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DP4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="DQ4" s="3" t="s">
         <v>200</v>
       </c>
       <c r="DR4" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="DS4" s="3" t="s">
         <v>200</v>
@@ -2953,16 +2950,16 @@
         <v>200</v>
       </c>
       <c r="DU4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="DV4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="DW4" s="3" t="s">
         <v>200</v>
       </c>
       <c r="DX4" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="DY4" s="3" t="s">
         <v>200</v>
@@ -2971,16 +2968,16 @@
         <v>200</v>
       </c>
       <c r="EA4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EB4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="EC4" s="3" t="s">
         <v>200</v>
       </c>
       <c r="ED4" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="EE4" s="3" t="s">
         <v>200</v>
@@ -2989,16 +2986,16 @@
         <v>200</v>
       </c>
       <c r="EG4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="EH4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="EI4" s="3" t="s">
         <v>200</v>
       </c>
       <c r="EJ4" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="EK4" s="3" t="s">
         <v>200</v>
@@ -3007,7 +3004,7 @@
         <v>200</v>
       </c>
       <c r="EM4" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard-ui/src/components/Research/variables/Variable Definitions RQ8_PH2.xlsx
+++ b/dashboard-ui/src/components/Research/variables/Variable Definitions RQ8_PH2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="204">
   <si>
     <t>Probe</t>
   </si>
@@ -258,9 +258,6 @@
     <t>Desert Triage Performance</t>
   </si>
   <si>
-    <t>Desert Tagging performance</t>
-  </si>
-  <si>
     <t>Desert Hemorrhage control</t>
   </si>
   <si>
@@ -270,9 +267,6 @@
     <t>Urban Triage Performance</t>
   </si>
   <si>
-    <t>Urban Tagging performance</t>
-  </si>
-  <si>
     <t>Urban Hemorrhage control</t>
   </si>
   <si>
@@ -678,10 +672,7 @@
     <t xml:space="preserve">Search vs. Stay probe based on whether the participant searched for new patients or stayed with current patients </t>
   </si>
   <si>
-    <t>% correct treatments applied</t>
-  </si>
-  <si>
-    <t>% correct tags applied</t>
+    <t>% correct treatments applied calculated as (correct tools applied) / (misses + total tools applied).</t>
   </si>
   <si>
     <t>Yes (1) if all hemorrhage control actions takens; otherwise no</t>
@@ -756,19 +747,16 @@
     <t>1 or 0</t>
   </si>
   <si>
-    <t>time (m)</t>
+    <t>time (s)</t>
   </si>
   <si>
     <t>number</t>
   </si>
   <si>
-    <t>time (ms)</t>
-  </si>
-  <si>
     <t>Yes/no</t>
   </si>
   <si>
-    <t>Time (ms)</t>
+    <t>Time (s)</t>
   </si>
   <si>
     <t>color of tag or N/A if none applied</t>
@@ -821,7 +809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -843,9 +831,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1149,7 +1134,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:EO4"/>
+  <dimension ref="A1:EM4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -1166,12 +1151,12 @@
     <col min="9" max="9" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="18" max="18" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="19" max="19" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="20" max="20" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
@@ -1182,17 +1167,17 @@
     <col min="25" max="25" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="26" max="26" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="27" max="27" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="30" max="30" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="31" max="31" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="32" max="32" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="35" max="35" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="36" max="36" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="39" max="39" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="40" max="40" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="41" max="41" style="6" width="13.005" customWidth="1" bestFit="1"/>
@@ -1298,8 +1283,6 @@
     <col min="141" max="141" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="142" max="142" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="143" max="143" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="144" max="144" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="145" max="145" style="6" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="46.5" customFormat="1" s="7">
@@ -1732,1320 +1715,1296 @@
       <c r="EM1" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="EN1" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="EO1" s="3" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="33" customFormat="1" s="7">
       <c r="A2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="M2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AX2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AZ2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BA2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BB2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BC2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BD2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BE2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BF2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BG2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BH2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BI2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BJ2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BK2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BL2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BM2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BN2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BO2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BP2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BQ2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BR2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BS2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BT2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BU2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BV2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BW2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BX2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BY2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BZ2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CA2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CB2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CC2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CD2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CE2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CF2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CG2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CH2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CI2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CJ2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CK2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CL2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CM2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CN2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CO2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CP2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CQ2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CR2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CS2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CT2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CU2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CV2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CW2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CX2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CY2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="CZ2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DA2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DB2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DC2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DD2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DE2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DF2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DG2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DH2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DI2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DJ2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DK2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DL2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DM2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DN2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DO2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DP2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DQ2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DR2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DS2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DT2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DU2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DV2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DW2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DX2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DY2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DZ2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="EA2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="EB2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="EC2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="ED2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="EE2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="EF2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="EG2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="EH2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="EI2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="EJ2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="EK2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="EL2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="EM2" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="EN2" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="EO2" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="154.5" customFormat="1" s="7">
       <c r="A3" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="J3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="N3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="T3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="R3" s="3" t="s">
+      <c r="W3" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="X3" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="V3" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="W3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG3" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AL3" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AM3" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AN3" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AO3" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AP3" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AQ3" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AR3" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="AI3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AO3" s="3" t="s">
+      <c r="AS3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AV3" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="AP3" s="3" t="s">
+      <c r="AW3" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="AQ3" s="3" t="s">
+      <c r="AX3" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="AR3" s="3" t="s">
+      <c r="AY3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="AS3" s="3" t="s">
+      <c r="AZ3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AT3" s="3" t="s">
+      <c r="BA3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="AU3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="AV3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AW3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="AX3" s="3" t="s">
+      <c r="BB3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="BE3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="AY3" s="3" t="s">
+      <c r="BF3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AZ3" s="3" t="s">
+      <c r="BG3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="BA3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="BB3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BC3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="BD3" s="3" t="s">
+      <c r="BH3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="BI3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="BK3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="BE3" s="3" t="s">
+      <c r="BL3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="BF3" s="3" t="s">
+      <c r="BM3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="BG3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="BH3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BI3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="BJ3" s="3" t="s">
+      <c r="BN3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="BO3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="BP3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="BQ3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="BK3" s="3" t="s">
+      <c r="BR3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="BL3" s="3" t="s">
+      <c r="BS3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="BM3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="BN3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BO3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="BP3" s="3" t="s">
+      <c r="BT3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="BU3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="BV3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="BW3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="BQ3" s="3" t="s">
+      <c r="BX3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="BR3" s="3" t="s">
+      <c r="BY3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="BS3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="BT3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BU3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="BV3" s="3" t="s">
+      <c r="BZ3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="CA3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="CB3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="CC3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="BW3" s="3" t="s">
+      <c r="CD3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="BX3" s="3" t="s">
+      <c r="CE3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="BY3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="BZ3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="CA3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="CB3" s="3" t="s">
+      <c r="CF3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="CG3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="CH3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="CI3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="CC3" s="3" t="s">
+      <c r="CJ3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="CD3" s="3" t="s">
+      <c r="CK3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="CE3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="CF3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="CG3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="CH3" s="3" t="s">
+      <c r="CL3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="CM3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="CN3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="CO3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="CI3" s="3" t="s">
+      <c r="CP3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="CJ3" s="3" t="s">
+      <c r="CQ3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="CK3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="CL3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="CM3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="CN3" s="3" t="s">
+      <c r="CR3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="CS3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="CT3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="CU3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="CO3" s="3" t="s">
+      <c r="CV3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="CP3" s="3" t="s">
+      <c r="CW3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="CQ3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="CR3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="CS3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="CT3" s="3" t="s">
+      <c r="CX3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="CY3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="CZ3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="DA3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="CU3" s="3" t="s">
+      <c r="DB3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="CV3" s="3" t="s">
+      <c r="DC3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="CW3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="CX3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="CY3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="CZ3" s="3" t="s">
+      <c r="DD3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="DE3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="DF3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="DG3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="DA3" s="3" t="s">
+      <c r="DH3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="DB3" s="3" t="s">
+      <c r="DI3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="DC3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="DD3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="DE3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="DF3" s="3" t="s">
+      <c r="DJ3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="DK3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="DL3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="DM3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="DG3" s="3" t="s">
+      <c r="DN3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="DH3" s="3" t="s">
+      <c r="DO3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="DI3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="DJ3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="DK3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="DL3" s="3" t="s">
+      <c r="DP3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="DQ3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="DR3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="DS3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="DM3" s="3" t="s">
+      <c r="DT3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="DN3" s="3" t="s">
+      <c r="DU3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="DO3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="DP3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="DQ3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="DR3" s="3" t="s">
+      <c r="DV3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="DW3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="DX3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="DY3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="DS3" s="3" t="s">
+      <c r="DZ3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="DT3" s="3" t="s">
+      <c r="EA3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="DU3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="DV3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="DW3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="DX3" s="3" t="s">
+      <c r="EB3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="EC3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="ED3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="EE3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="DY3" s="3" t="s">
+      <c r="EF3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="DZ3" s="3" t="s">
+      <c r="EG3" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="EA3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="EB3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="EC3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="ED3" s="3" t="s">
+      <c r="EH3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="EI3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="EJ3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="EK3" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="EE3" s="3" t="s">
+      <c r="EL3" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="EF3" s="3" t="s">
+      <c r="EM3" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="EG3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="EH3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="EI3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="EJ3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="EK3" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="EL3" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="EM3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="EN3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="EO3" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="100.5" customFormat="1" s="7">
       <c r="A4" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="N4" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="S4" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="L4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="X4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB4" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="P4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AK4" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="AL4" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM4" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="AN4" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="AR4" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="U4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="V4" s="3" t="s">
+      <c r="AS4" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="AT4" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AI4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AJ4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AK4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AL4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AM4" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="AN4" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="AO4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AP4" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="AQ4" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AR4" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="AS4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AT4" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="AU4" s="3" t="s">
         <v>203</v>
       </c>
       <c r="AV4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AW4" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AX4" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="AY4" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AZ4" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="BA4" s="3" t="s">
         <v>203</v>
       </c>
       <c r="BB4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BC4" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BD4" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="BE4" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="BF4" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="BG4" s="3" t="s">
         <v>203</v>
       </c>
       <c r="BH4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BI4" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BJ4" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="BK4" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="BL4" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="BM4" s="3" t="s">
         <v>203</v>
       </c>
       <c r="BN4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BO4" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BP4" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="BQ4" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="BR4" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="BS4" s="3" t="s">
         <v>203</v>
       </c>
       <c r="BT4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BU4" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="BV4" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="BW4" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="BX4" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="BY4" s="3" t="s">
         <v>203</v>
       </c>
       <c r="BZ4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CA4" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="CB4" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="CC4" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="CD4" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="CE4" s="3" t="s">
         <v>203</v>
       </c>
       <c r="CF4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CG4" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="CH4" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="CI4" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="CJ4" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="CK4" s="3" t="s">
         <v>203</v>
       </c>
       <c r="CL4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CM4" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="CN4" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="CO4" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="CP4" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="CQ4" s="3" t="s">
         <v>203</v>
       </c>
       <c r="CR4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CS4" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="CT4" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="CU4" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="CV4" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="CW4" s="3" t="s">
         <v>203</v>
       </c>
       <c r="CX4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CY4" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="CZ4" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="DA4" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="DB4" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="DC4" s="3" t="s">
         <v>203</v>
       </c>
       <c r="DD4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="DE4" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="DF4" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="DG4" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="DH4" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="DI4" s="3" t="s">
         <v>203</v>
       </c>
       <c r="DJ4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="DK4" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="DL4" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="DM4" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="DN4" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="DO4" s="3" t="s">
         <v>203</v>
       </c>
       <c r="DP4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="DQ4" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="DR4" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="DS4" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="DT4" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="DU4" s="3" t="s">
         <v>203</v>
       </c>
       <c r="DV4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="DW4" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="DX4" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="DY4" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="DZ4" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="EA4" s="3" t="s">
         <v>203</v>
       </c>
       <c r="EB4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="EC4" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="ED4" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="EE4" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="EF4" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="EG4" s="3" t="s">
         <v>203</v>
       </c>
       <c r="EH4" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="EI4" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="EJ4" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="EK4" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="EL4" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="EM4" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="EN4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="EO4" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard-ui/src/components/Research/variables/Variable Definitions RQ8_PH2.xlsx
+++ b/dashboard-ui/src/components/Research/variables/Variable Definitions RQ8_PH2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="217">
   <si>
     <t>Probe</t>
   </si>
@@ -237,6 +237,42 @@
     <t>Urban AF KDMA</t>
   </si>
   <si>
+    <t>Desert Probe1_AF</t>
+  </si>
+  <si>
+    <t>Desert Probe2_AFMF</t>
+  </si>
+  <si>
+    <t>Desert Probe3_AF</t>
+  </si>
+  <si>
+    <t>Desert Probe4_AFMF</t>
+  </si>
+  <si>
+    <t>Desert Probe5_AFMF</t>
+  </si>
+  <si>
+    <t>Desert Probe6_AF</t>
+  </si>
+  <si>
+    <t>Urban Probe1_MF</t>
+  </si>
+  <si>
+    <t>Urban Probe2_MF</t>
+  </si>
+  <si>
+    <t>Urban Probe3_AF</t>
+  </si>
+  <si>
+    <t>Urban Probe4_AF</t>
+  </si>
+  <si>
+    <t>Urban Probe5_MF</t>
+  </si>
+  <si>
+    <t>Urban Probe6_AF</t>
+  </si>
+  <si>
     <t>Desert Personal_safety</t>
   </si>
   <si>
@@ -733,6 +769,9 @@
   </si>
   <si>
     <t>0.0-1.0</t>
+  </si>
+  <si>
+    <t>Patient A or Patient B</t>
   </si>
   <si>
     <t>1 = left the initial zone prior to the all clear, 0 = stayed until safe</t>
@@ -767,7 +806,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -778,6 +817,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -809,7 +854,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -831,6 +876,12 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1134,7 +1185,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:EM4"/>
+  <dimension ref="A1:EY4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -1151,43 +1202,43 @@
     <col min="9" max="9" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="33" max="33" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="34" max="34" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="35" max="35" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="36" max="36" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="39" max="39" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="39" max="39" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="40" max="40" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="41" max="41" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="42" max="42" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="43" max="43" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="44" max="44" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="45" max="45" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="46" max="46" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="47" max="47" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="48" max="48" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="45" max="45" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="46" max="46" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="47" max="47" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="48" max="48" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="49" max="49" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="50" max="50" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="51" max="51" style="6" width="13.005" customWidth="1" bestFit="1"/>
@@ -1283,9 +1334,21 @@
     <col min="141" max="141" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="142" max="142" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="143" max="143" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="144" max="144" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="145" max="145" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="146" max="146" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="147" max="147" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="148" max="148" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="149" max="149" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="150" max="150" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="151" max="151" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="152" max="152" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="153" max="153" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="154" max="154" style="6" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="155" max="155" style="6" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="46.5" customFormat="1" s="7">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="44.25" customFormat="1" s="7">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -1319,40 +1382,40 @@
       <c r="K1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="8" t="s">
         <v>40</v>
       </c>
       <c r="X1" s="3" t="s">
@@ -1715,570 +1778,618 @@
       <c r="EM1" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="33" customFormat="1" s="7">
+      <c r="EN1" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="EO1" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="EP1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="EQ1" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="ER1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="ES1" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="ET1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="EU1" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="EV1" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="EW1" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="EX1" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="EY1" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="31.5" customFormat="1" s="7">
       <c r="A2" s="3" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AX2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="AZ2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="BA2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="BB2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="BC2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="BD2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="BE2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="BF2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="BG2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="BH2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="BI2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="BJ2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="BK2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="BL2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="BM2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="BN2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="BO2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="BP2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="BQ2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="BR2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="BS2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="BT2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="BU2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="BV2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="BW2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="BX2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="BY2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="BZ2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="CA2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="CB2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="CC2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="CD2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="CE2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="CF2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="CG2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="CH2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="CI2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="CJ2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="CK2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="CL2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="CM2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="CN2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="CO2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="CP2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="CQ2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="CR2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="CS2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="CT2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="CU2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="CV2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="CW2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="CX2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="CY2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="CZ2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="DA2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="DB2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="DC2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="DD2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="DE2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="DF2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="DG2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="DH2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="DI2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="DJ2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="DK2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="DL2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="DM2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="DN2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="DO2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="DP2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="DQ2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="DR2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="DS2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="DT2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="DU2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="DV2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="DW2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="DX2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="DY2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="DZ2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="EA2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="EB2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="EC2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="ED2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="EE2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="EF2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="EG2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="EH2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="EI2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="EJ2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="EK2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="EL2" s="3" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="EM2" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="154.5" customFormat="1" s="7">
+        <v>177</v>
+      </c>
+      <c r="EN2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="EO2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="EP2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="EQ2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="ER2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="ES2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="ET2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="EU2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="EV2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="EW2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="EX2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="EY2" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="146.25" customFormat="1" s="7">
       <c r="A3" s="3" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>176</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
       <c r="X3" s="3" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="AL3" s="3" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="AM3" s="3" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AO3" s="3" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="AP3" s="3" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="AQ3" s="3" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="AR3" s="3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="AS3" s="3" t="s">
         <v>189</v>
@@ -2290,721 +2401,793 @@
         <v>191</v>
       </c>
       <c r="AV3" s="3" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="AW3" s="3" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AX3" s="3" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="AY3" s="3" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="AZ3" s="3" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="BA3" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="BB3" s="3" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="BC3" s="3" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="BD3" s="3" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="BE3" s="3" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="BF3" s="3" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="BG3" s="3" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="BH3" s="3" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="BI3" s="3" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="BJ3" s="3" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="BK3" s="3" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="BL3" s="3" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="BM3" s="3" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="BN3" s="3" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="BO3" s="3" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="BP3" s="3" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="BQ3" s="3" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="BR3" s="3" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="BS3" s="3" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="BT3" s="3" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="BU3" s="3" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="BV3" s="3" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="BW3" s="3" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="BX3" s="3" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="BY3" s="3" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="BZ3" s="3" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="CA3" s="3" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="CB3" s="3" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="CC3" s="3" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="CD3" s="3" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="CE3" s="3" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="CF3" s="3" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="CG3" s="3" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="CH3" s="3" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="CI3" s="3" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="CJ3" s="3" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="CK3" s="3" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="CL3" s="3" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="CM3" s="3" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="CN3" s="3" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="CO3" s="3" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="CP3" s="3" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="CQ3" s="3" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="CR3" s="3" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="CS3" s="3" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="CT3" s="3" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="CU3" s="3" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="CV3" s="3" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="CW3" s="3" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="CX3" s="3" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="CY3" s="3" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="CZ3" s="3" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="DA3" s="3" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="DB3" s="3" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="DC3" s="3" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="DD3" s="3" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="DE3" s="3" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="DF3" s="3" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="DG3" s="3" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="DH3" s="3" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="DI3" s="3" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="DJ3" s="3" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="DK3" s="3" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="DL3" s="3" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="DM3" s="3" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="DN3" s="3" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="DO3" s="3" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="DP3" s="3" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="DQ3" s="3" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="DR3" s="3" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="DS3" s="3" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="DT3" s="3" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="DU3" s="3" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="DV3" s="3" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="DW3" s="3" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="DX3" s="3" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="DY3" s="3" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="DZ3" s="3" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="EA3" s="3" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="EB3" s="3" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="EC3" s="3" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="ED3" s="3" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="EE3" s="3" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="EF3" s="3" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="EG3" s="3" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="EH3" s="3" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="EI3" s="3" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="EJ3" s="3" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="EK3" s="3" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="EL3" s="3" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="EM3" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="100.5" customFormat="1" s="7">
+        <v>203</v>
+      </c>
+      <c r="EN3" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="EO3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="EP3" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="EQ3" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="ER3" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="ES3" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="ET3" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="EU3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="EV3" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="EW3" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="EX3" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="EY3" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="95.25" customFormat="1" s="7">
       <c r="A4" s="3" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>199</v>
+        <v>206</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="AN4" s="3" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="AO4" s="3" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="AQ4" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AR4" s="3" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="AS4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="AT4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="AU4" s="3" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="AV4" s="3" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="AW4" s="3" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="AX4" s="3" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="AY4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="AZ4" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="BA4" s="3" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="BB4" s="3" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="BC4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="BD4" s="3" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="BE4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="BF4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="BG4" s="3" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="BH4" s="3" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="BI4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="BJ4" s="3" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="BK4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="BL4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="BM4" s="3" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="BN4" s="3" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="BO4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="BP4" s="3" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="BQ4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="BR4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="BS4" s="3" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="BT4" s="3" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="BU4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="BV4" s="3" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="BW4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="BX4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="BY4" s="3" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="BZ4" s="3" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="CA4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="CB4" s="3" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="CC4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="CD4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="CE4" s="3" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="CF4" s="3" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="CG4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="CH4" s="3" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="CI4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="CJ4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="CK4" s="3" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="CL4" s="3" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="CM4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="CN4" s="3" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="CO4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="CP4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="CQ4" s="3" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="CR4" s="3" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="CS4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="CT4" s="3" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="CU4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="CV4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="CW4" s="3" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="CX4" s="3" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="CY4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="CZ4" s="3" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="DA4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="DB4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="DC4" s="3" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="DD4" s="3" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="DE4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="DF4" s="3" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="DG4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="DH4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="DI4" s="3" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="DJ4" s="3" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="DK4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="DL4" s="3" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="DM4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="DN4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="DO4" s="3" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="DP4" s="3" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="DQ4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="DR4" s="3" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="DS4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="DT4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="DU4" s="3" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="DV4" s="3" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="DW4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="DX4" s="3" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="DY4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="DZ4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="EA4" s="3" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="EB4" s="3" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="EC4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="ED4" s="3" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="EE4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="EF4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="EG4" s="3" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="EH4" s="3" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="EI4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="EJ4" s="3" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="EK4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="EL4" s="3" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="EM4" s="3" t="s">
-        <v>203</v>
+        <v>216</v>
+      </c>
+      <c r="EN4" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="EO4" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="EP4" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="EQ4" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="ER4" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="ES4" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="ET4" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="EU4" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="EV4" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="EW4" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="EX4" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="EY4" s="3" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard-ui/src/components/Research/variables/Variable Definitions RQ8_PH2.xlsx
+++ b/dashboard-ui/src/components/Research/variables/Variable Definitions RQ8_PH2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="220">
   <si>
     <t>Probe</t>
   </si>
@@ -237,58 +237,58 @@
     <t>Urban AF KDMA</t>
   </si>
   <si>
-    <t>Desert Probe1_AF</t>
-  </si>
-  <si>
-    <t>Desert Probe2_AFMF</t>
-  </si>
-  <si>
-    <t>Desert Probe3_AF</t>
-  </si>
-  <si>
-    <t>Desert Probe4_AFMF</t>
-  </si>
-  <si>
-    <t>Desert Probe5_AFMF</t>
-  </si>
-  <si>
-    <t>Desert Probe6_AF</t>
-  </si>
-  <si>
-    <t>Urban Probe1_MF</t>
-  </si>
-  <si>
-    <t>Urban Probe2_MF</t>
-  </si>
-  <si>
-    <t>Urban Probe3_AF</t>
-  </si>
-  <si>
-    <t>Urban Probe4_AF</t>
-  </si>
-  <si>
-    <t>Urban Probe5_MF</t>
-  </si>
-  <si>
-    <t>Urban Probe6_AF</t>
-  </si>
-  <si>
-    <t>Desert Personal_safety</t>
-  </si>
-  <si>
-    <t>Desert Search1</t>
-  </si>
-  <si>
-    <t>Desert Search2</t>
-  </si>
-  <si>
-    <t>Urban Personal_safety</t>
-  </si>
-  <si>
-    <t>Urban Search1</t>
-  </si>
-  <si>
-    <t>Urban Search2</t>
+    <t>Desert Probe_AF1</t>
+  </si>
+  <si>
+    <t>Desert Probe_AF2</t>
+  </si>
+  <si>
+    <t>Desert Probe_AF3</t>
+  </si>
+  <si>
+    <t>Desert Probe_AFMF1</t>
+  </si>
+  <si>
+    <t>Desert Probe_AFMF2</t>
+  </si>
+  <si>
+    <t>Desert Probe_AFMF3</t>
+  </si>
+  <si>
+    <t>Desert Probe_PS1</t>
+  </si>
+  <si>
+    <t>Desert Probe_SS1</t>
+  </si>
+  <si>
+    <t>Desert Probe_SS2</t>
+  </si>
+  <si>
+    <t>Urban Probe_MF1</t>
+  </si>
+  <si>
+    <t>Urban Probe_MF2</t>
+  </si>
+  <si>
+    <t>Urban Probe_MF3</t>
+  </si>
+  <si>
+    <t>Urban Probe_AF1</t>
+  </si>
+  <si>
+    <t>Urban Probe_AF2</t>
+  </si>
+  <si>
+    <t>Urban Probe_AF3</t>
+  </si>
+  <si>
+    <t>Urban Probe_PS1</t>
+  </si>
+  <si>
+    <t>Urban Probe_SS1</t>
+  </si>
+  <si>
+    <t>Urban Probe_SS2</t>
   </si>
   <si>
     <t>Desert Triage Performance</t>
@@ -702,10 +702,19 @@
     <t>KDMA measurement from simulation probes  in Urban Scenario</t>
   </si>
   <si>
+    <t>Affiliation Focus probe based on how much the participant weighed personal affiliation (e.g., same unit vs. local civilian) compared to medical factors.</t>
+  </si>
+  <si>
+    <t>Combined Merit and Affiliation Focus probe based on how the participant weighs the patient's merit, personal affiliation, and medical factors.</t>
+  </si>
+  <si>
     <t>Personal Safety probe based on whether or not the participant left the initial zone prior to the all clear radio inject</t>
   </si>
   <si>
     <t xml:space="preserve">Search vs. Stay probe based on whether the participant searched for new patients or stayed with current patients </t>
+  </si>
+  <si>
+    <t>Merit Focus probe based on whether the participant weighed the patient's merit (e.g., terrorist vs. good Samaritan) compared to medical factors.</t>
   </si>
   <si>
     <t>% correct treatments applied calculated as (correct tools applied) / (misses + total tools applied).</t>
@@ -806,7 +815,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -817,12 +826,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -877,11 +880,11 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1202,18 +1205,18 @@
     <col min="9" max="9" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="6" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="9" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="9" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="9" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="9" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="9" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="9" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="9" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="9" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="9" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="24" max="24" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="25" max="25" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="26" max="26" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
@@ -1382,7 +1385,7 @@
       <c r="K1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="3" t="s">
         <v>29</v>
       </c>
       <c r="M1" s="8" t="s">
@@ -1400,22 +1403,22 @@
       <c r="Q1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="S1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="3" t="s">
         <v>40</v>
       </c>
       <c r="X1" s="3" t="s">
@@ -2316,878 +2319,902 @@
       <c r="K3" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
+      <c r="L3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>188</v>
+      </c>
       <c r="X3" s="3" t="s">
         <v>184</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AC3" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AL3" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AM3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AS3" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="AN3" s="3" t="s">
+      <c r="AT3" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AO3" s="3" t="s">
+      <c r="AU3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="AP3" s="3" t="s">
+      <c r="AV3" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AQ3" s="3" t="s">
+      <c r="AW3" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="AR3" s="3" t="s">
+      <c r="AX3" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="AS3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AT3" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="AU3" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="AV3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="AW3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AX3" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="AY3" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AZ3" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="BA3" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="BB3" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="BC3" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="BD3" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="BE3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="BH3" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="BF3" s="3" t="s">
+      <c r="BI3" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="BG3" s="3" t="s">
+      <c r="BJ3" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="BH3" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="BI3" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="BJ3" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="BK3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="BL3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BM3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="BN3" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="BL3" s="3" t="s">
+      <c r="BO3" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="BM3" s="3" t="s">
+      <c r="BP3" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="BN3" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="BO3" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="BP3" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="BQ3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="BR3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BS3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="BT3" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="BR3" s="3" t="s">
+      <c r="BU3" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="BS3" s="3" t="s">
+      <c r="BV3" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="BT3" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="BU3" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="BV3" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="BW3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="BX3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BY3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="BZ3" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="BX3" s="3" t="s">
+      <c r="CA3" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="BY3" s="3" t="s">
+      <c r="CB3" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="BZ3" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="CA3" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="CB3" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="CC3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="CD3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="CE3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="CF3" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="CD3" s="3" t="s">
+      <c r="CG3" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="CE3" s="3" t="s">
+      <c r="CH3" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="CF3" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="CG3" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="CH3" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="CI3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="CJ3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="CK3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="CL3" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="CJ3" s="3" t="s">
+      <c r="CM3" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="CK3" s="3" t="s">
+      <c r="CN3" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="CL3" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="CM3" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="CN3" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="CO3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="CP3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="CQ3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="CR3" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="CP3" s="3" t="s">
+      <c r="CS3" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="CQ3" s="3" t="s">
+      <c r="CT3" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="CR3" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="CS3" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="CT3" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="CU3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="CV3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="CW3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="CX3" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="CV3" s="3" t="s">
+      <c r="CY3" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="CW3" s="3" t="s">
+      <c r="CZ3" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="CX3" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="CY3" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="CZ3" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="DA3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="DB3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="DC3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="DD3" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="DB3" s="3" t="s">
+      <c r="DE3" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="DC3" s="3" t="s">
+      <c r="DF3" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="DD3" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="DE3" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="DF3" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="DG3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="DH3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="DI3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="DJ3" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="DH3" s="3" t="s">
+      <c r="DK3" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="DI3" s="3" t="s">
+      <c r="DL3" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="DJ3" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="DK3" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="DL3" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="DM3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="DN3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="DO3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="DP3" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="DN3" s="3" t="s">
+      <c r="DQ3" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="DO3" s="3" t="s">
+      <c r="DR3" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="DP3" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="DQ3" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="DR3" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="DS3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="DT3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="DU3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="DV3" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="DT3" s="3" t="s">
+      <c r="DW3" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="DU3" s="3" t="s">
+      <c r="DX3" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="DV3" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="DW3" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="DX3" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="DY3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="DZ3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="EA3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="EB3" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="DZ3" s="3" t="s">
+      <c r="EC3" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="EA3" s="3" t="s">
+      <c r="ED3" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="EB3" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="EC3" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="ED3" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="EE3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="EF3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="EG3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="EH3" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="EF3" s="3" t="s">
+      <c r="EI3" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="EG3" s="3" t="s">
+      <c r="EJ3" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="EH3" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="EI3" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="EJ3" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="EK3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="EL3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="EM3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="EN3" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="EL3" s="3" t="s">
+      <c r="EO3" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="EM3" s="3" t="s">
+      <c r="EP3" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="EN3" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="EO3" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="EP3" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="EQ3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="ER3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="ES3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="ET3" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="ER3" s="3" t="s">
+      <c r="EU3" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="ES3" s="3" t="s">
+      <c r="EV3" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="ET3" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="EU3" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="EV3" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="EW3" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="EX3" s="3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="EY3" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="95.25" customFormat="1" s="7">
       <c r="A4" s="3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Y4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AO4" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AR4" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AU4" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AV4" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW4" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AX4" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="AY4" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="AZ4" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="AA4" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="AI4" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ4" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK4" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="AL4" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM4" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="AN4" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="AO4" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP4" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="AQ4" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="AR4" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="AS4" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="AT4" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="AU4" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="AV4" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="AW4" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="AX4" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="AY4" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="AZ4" s="3" t="s">
-        <v>206</v>
-      </c>
       <c r="BA4" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="BB4" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="BC4" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="BD4" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="BE4" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="BF4" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="BG4" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="BH4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="BI4" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="BH4" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="BI4" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="BJ4" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="BK4" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="BL4" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="BM4" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="BN4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="BO4" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="BN4" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="BO4" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="BP4" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="BQ4" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="BR4" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="BS4" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="BT4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="BU4" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="BT4" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="BU4" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="BV4" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="BW4" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="BX4" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="BY4" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="BZ4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="CA4" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="BZ4" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="CA4" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="CB4" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="CC4" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="CD4" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="CE4" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="CF4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="CG4" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="CF4" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="CG4" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="CH4" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="CI4" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="CJ4" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="CK4" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="CL4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="CM4" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="CL4" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="CM4" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="CN4" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="CO4" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="CP4" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="CQ4" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="CR4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="CS4" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="CR4" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="CS4" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="CT4" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="CU4" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="CV4" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="CW4" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="CX4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="CY4" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="CX4" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="CY4" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="CZ4" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="DA4" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="DB4" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="DC4" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="DD4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="DE4" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="DD4" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="DE4" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="DF4" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="DG4" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="DH4" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="DI4" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="DJ4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="DK4" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="DJ4" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="DK4" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="DL4" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="DM4" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="DN4" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="DO4" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="DP4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="DQ4" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="DP4" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="DQ4" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="DR4" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="DS4" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="DT4" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="DU4" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="DV4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="DW4" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="DV4" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="DW4" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="DX4" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="DY4" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="DZ4" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="EA4" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="EB4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="EC4" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="EB4" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="EC4" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="ED4" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="EE4" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="EF4" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="EG4" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="EH4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="EI4" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="EH4" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="EI4" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="EJ4" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="EK4" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="EL4" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="EM4" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="EN4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="EO4" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="EN4" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="EO4" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="EP4" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="EQ4" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="ER4" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="ES4" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="ET4" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="EU4" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="ET4" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="EU4" s="3" t="s">
-        <v>213</v>
-      </c>
       <c r="EV4" s="3" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="EW4" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="EX4" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="EY4" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard-ui/src/components/Research/variables/Variable Definitions RQ8_PH2.xlsx
+++ b/dashboard-ui/src/components/Research/variables/Variable Definitions RQ8_PH2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="130">
   <si>
     <t>Probe</t>
   </si>
@@ -267,9 +267,6 @@
     <t>Urban Patient{N}_tag</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -464,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -488,9 +485,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -795,7 +789,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:EY4"/>
+  <dimension ref="A1:BM4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -866,96 +860,6 @@
     <col min="63" max="63" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="64" max="64" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="65" max="65" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="66" max="66" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="67" max="67" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="68" max="68" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="69" max="69" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="70" max="70" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="71" max="71" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="72" max="72" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="73" max="73" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="74" max="74" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="75" max="75" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="76" max="76" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="77" max="77" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="78" max="78" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="79" max="79" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="80" max="80" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="81" max="81" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="82" max="82" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="83" max="83" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="84" max="84" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="85" max="85" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="86" max="86" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="87" max="87" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="88" max="88" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="89" max="89" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="90" max="90" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="91" max="91" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="92" max="92" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="93" max="93" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="94" max="94" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="95" max="95" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="96" max="96" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="97" max="97" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="98" max="98" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="99" max="99" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="100" max="100" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="101" max="101" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="102" max="102" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="103" max="103" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="104" max="104" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="105" max="105" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="106" max="106" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="107" max="107" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="108" max="108" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="109" max="109" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="110" max="110" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="111" max="111" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="112" max="112" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="113" max="113" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="114" max="114" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="115" max="115" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="116" max="116" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="117" max="117" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="118" max="118" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="119" max="119" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="120" max="120" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="121" max="121" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="122" max="122" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="123" max="123" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="124" max="124" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="125" max="125" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="126" max="126" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="127" max="127" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="128" max="128" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="129" max="129" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="130" max="130" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="131" max="131" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="132" max="132" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="133" max="133" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="134" max="134" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="135" max="135" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="136" max="136" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="137" max="137" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="138" max="138" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="139" max="139" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="140" max="140" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="141" max="141" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="142" max="142" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="143" max="143" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="144" max="144" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="145" max="145" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="146" max="146" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="147" max="147" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="148" max="148" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="149" max="149" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="150" max="150" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="151" max="151" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="152" max="152" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="153" max="153" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="154" max="154" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="155" max="155" style="6" width="13.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="46.5" customFormat="1" s="7">
@@ -1154,1674 +1058,594 @@
       <c r="BM1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="BN1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BO1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BP1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BQ1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BR1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BT1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BU1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BV1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BW1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BX1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BY1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BZ1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CA1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CB1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CC1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CD1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CE1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CF1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CG1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CI1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CJ1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CK1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CL1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CM1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CN1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CO1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CP1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CQ1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CR1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CS1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CT1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CU1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CV1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CW1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CX1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CY1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CZ1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DA1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DB1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DC1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DD1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DE1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DF1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DG1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DH1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DI1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DJ1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DK1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DL1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DM1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DN1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DO1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DP1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DQ1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DR1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DS1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DT1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DU1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DV1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DW1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DX1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DY1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DZ1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EA1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EB1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EC1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="ED1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EE1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EF1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EG1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EH1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EI1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EJ1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EK1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EL1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EM1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EN1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EO1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EP1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EQ1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="ER1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="ES1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="ET1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EU1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EV1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EW1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EX1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EY1" s="9" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="33" customFormat="1" s="7">
       <c r="A2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="T2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AX2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AZ2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BA2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BB2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BC2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BD2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BE2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BF2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BG2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BH2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BI2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BJ2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BK2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BL2" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BM2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="BN2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BO2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BP2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BQ2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BR2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BT2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BU2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BV2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BW2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BX2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BY2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BZ2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CA2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CB2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CC2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CD2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CE2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CF2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CG2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CI2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CJ2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CK2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CL2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CM2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CN2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CO2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CP2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CQ2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CR2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CS2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CT2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CU2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CV2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CW2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CX2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CY2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CZ2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DA2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DB2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DC2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DD2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DE2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DF2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DG2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DH2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DI2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DJ2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DK2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DL2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DM2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DN2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DO2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DP2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DQ2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DR2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DS2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DT2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DU2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DV2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DW2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DX2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DY2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DZ2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EA2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EB2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EC2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="ED2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EE2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EF2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EG2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EH2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EI2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EJ2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EK2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EL2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EM2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EN2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EO2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EP2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EQ2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="ER2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="ES2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="ET2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EU2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EV2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EW2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EX2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EY2" s="9" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="208.5" customFormat="1" s="7">
       <c r="A3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="I3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="S3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="R3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="U3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD3" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG3" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="W3" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AG3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AK3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS3" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AJ3" s="3" t="s">
+      <c r="AT3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AK3" s="3" t="s">
+      <c r="AU3" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AL3" s="3" t="s">
+      <c r="AV3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AM3" s="3" t="s">
+      <c r="AW3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="AN3" s="3" t="s">
+      <c r="AX3" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AO3" s="3" t="s">
+      <c r="AY3" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AP3" s="3" t="s">
+      <c r="AZ3" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AQ3" s="3" t="s">
+      <c r="BA3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AR3" s="3" t="s">
+      <c r="BB3" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AS3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AT3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AU3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AV3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AW3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AX3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AY3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AZ3" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="BA3" s="3" t="s">
+      <c r="BC3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="BH3" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="BB3" s="3" t="s">
+      <c r="BI3" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="BC3" s="3" t="s">
+      <c r="BJ3" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="BD3" s="3" t="s">
+      <c r="BK3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="BE3" s="3" t="s">
+      <c r="BL3" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BF3" s="3" t="s">
+      <c r="BM3" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="BG3" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="BH3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="BI3" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="BJ3" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BK3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="BL3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="BM3" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="BN3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BO3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BP3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BQ3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BR3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BT3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BU3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BV3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BW3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BX3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BY3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BZ3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CA3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CB3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CC3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CD3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CE3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CF3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CG3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CI3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CJ3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CK3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CL3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CM3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CN3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CO3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CP3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CQ3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CR3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CS3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CT3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CU3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CV3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CW3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CX3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CY3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CZ3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DA3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DB3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DC3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DD3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DE3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DF3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DG3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DH3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DI3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DJ3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DK3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DL3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DM3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DN3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DO3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DP3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DQ3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DR3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DS3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DT3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DU3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DV3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DW3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DX3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DY3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DZ3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EA3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EB3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EC3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="ED3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EE3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EF3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EG3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EH3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EI3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EJ3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EK3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EL3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EM3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EN3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EO3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EP3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EQ3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="ER3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="ES3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="ET3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EU3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EV3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EW3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EX3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EY3" s="9" t="s">
-        <v>83</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="100.5" customFormat="1" s="7">
       <c r="A4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="R4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="W4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA4" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="R4" s="3" t="s">
+      <c r="AB4" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD4" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG4" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="U4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AG4" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AK4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN4" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AO4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP4" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AQ4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR4" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AS4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AZ4" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="BA4" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="BB4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD4" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="BE4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BF4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BG4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="BH4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BI4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ4" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AN4" s="3" t="s">
+      <c r="BK4" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AO4" s="3" t="s">
+      <c r="BL4" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AP4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ4" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AR4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AT4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AW4" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AX4" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="AY4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AZ4" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="BA4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BB4" s="3" t="s">
+      <c r="BM4" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="BC4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BG4" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="BH4" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="BI4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BJ4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BK4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BL4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BM4" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="BN4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BO4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BP4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BQ4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BR4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BT4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BU4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BV4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BW4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BX4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BY4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="BZ4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CA4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CB4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CC4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CD4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CE4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CF4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CG4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CI4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CJ4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CK4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CL4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CM4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CN4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CO4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CP4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CQ4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CR4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CS4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CT4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CU4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CV4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CW4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CX4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CY4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="CZ4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DA4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DB4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DC4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DD4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DE4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DF4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DG4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DH4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DI4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DJ4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DK4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DL4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DM4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DN4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DO4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DP4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DQ4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DR4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DS4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DT4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DU4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DV4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DW4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DX4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DY4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="DZ4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EA4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EB4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EC4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="ED4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EE4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EF4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EG4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EH4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EI4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EJ4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EK4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EL4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EM4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EN4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EO4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EP4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EQ4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="ER4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="ES4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="ET4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EU4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EV4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EW4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EX4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="EY4" s="9" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
